--- a/HCECreditReferenceCenter/Data/Config.xlsx
+++ b/HCECreditReferenceCenter/Data/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\20120262\Documents\UiPath\HCECreditReferenceCenter\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7914F732-96F6-464D-AD7C-327622B41C4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0D12372-DF79-4174-B2E9-F62167FC5D5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30612" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="72">
   <si>
     <t>Name</t>
   </si>
@@ -194,48 +194,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>dcflUsername</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>dcflUrl</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>dcflPassword</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>dcfl.tax</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://10.40.128.182:8080/core</t>
-  </si>
-  <si>
     <t>crsUrl</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>crsUsername</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>crsPassword</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>dcfl202001</t>
-  </si>
-  <si>
-    <t>Bill0701</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>987654321qwer@</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>hceUsername</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -244,14 +206,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>dms</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bill5566</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>browserType</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -260,16 +214,55 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>http://10.102.105.34:8080/</t>
+    <t>authName</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>fileName</t>
+    <t>现代融资租赁有限公司</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>d:\Contract\aa1111.csv</t>
+    <t>test001</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>d001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://10.102.105.24:8080/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Doushan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hceUsernameT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bill8899</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DownLoadPath</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CacheFile</t>
+  </si>
+  <si>
+    <t>ScreenshotsPath</t>
+  </si>
+  <si>
+    <t>D:\RPA\Download\</t>
+  </si>
+  <si>
+    <t>D:\RPA\Cache\HceCrsCache.xlsx</t>
+  </si>
+  <si>
+    <t>D:\RPA\Screenshots\</t>
   </si>
   <si>
     <t>Edge</t>
@@ -280,7 +273,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -291,6 +284,7 @@
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -303,6 +297,13 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -325,13 +326,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -670,10 +672,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z997"/>
+  <dimension ref="A1:Z991"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -731,7 +733,7 @@
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>49</v>
@@ -758,82 +760,82 @@
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B7" t="s">
-        <v>56</v>
+        <v>54</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>62</v>
+        <v>55</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B9" t="s">
-        <v>60</v>
+        <v>56</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>65</v>
+        <v>53</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>64</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>72</v>
+        <v>65</v>
+      </c>
+      <c r="B13" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B14" s="4" t="s">
+      <c r="A14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
+      <c r="A15" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" t="s">
         <v>70</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1812,12 +1814,6 @@
     <row r="989" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="990" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="991" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="992" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="993" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="994" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="995" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="996" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="997" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3043,7 +3039,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/HCECreditReferenceCenter/Data/Config.xlsx
+++ b/HCECreditReferenceCenter/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\20120262\Documents\UiPath\HCECreditReferenceCenter\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0D12372-DF79-4174-B2E9-F62167FC5D5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0580F7C4-0A3D-43C3-BC22-D4F0EB560636}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30612" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="73">
   <si>
     <t>Name</t>
   </si>
@@ -265,7 +265,11 @@
     <t>D:\RPA\Screenshots\</t>
   </si>
   <si>
-    <t>Edge</t>
+    <t>ExpiresDate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20240301</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -273,7 +277,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -305,6 +309,13 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Malgun Gothic"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -326,7 +337,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -334,6 +345,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -675,7 +688,7 @@
   <dimension ref="A1:Z991"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -774,13 +787,11 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>71</v>
-      </c>
+      <c r="B8" s="8"/>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
@@ -838,7 +849,14 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
     <row r="17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="18" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/HCECreditReferenceCenter/Data/Config.xlsx
+++ b/HCECreditReferenceCenter/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\20120262\Documents\UiPath\HCECreditReferenceCenter\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0580F7C4-0A3D-43C3-BC22-D4F0EB560636}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74316DBD-3676-4C37-BE10-EE52BC7BBE38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="72">
   <si>
     <t>Name</t>
   </si>
@@ -234,18 +234,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Doushan</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>hceUsernameT</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Bill8899</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>DownLoadPath</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -270,6 +262,10 @@
   </si>
   <si>
     <t>20240301</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HFLRPA</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -688,7 +684,7 @@
   <dimension ref="A1:Z991"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -773,7 +769,7 @@
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>59</v>
@@ -814,47 +810,45 @@
         <v>53</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>64</v>
-      </c>
+      <c r="B12" s="5"/>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B13" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/HCECreditReferenceCenter/Data/Config.xlsx
+++ b/HCECreditReferenceCenter/Data/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\20120262\Documents\UiPath\HCECreditReferenceCenter\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74316DBD-3676-4C37-BE10-EE52BC7BBE38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF49AF4A-CF5F-4EE8-AAA5-DBCA378F8D59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="73">
   <si>
     <t>Name</t>
   </si>
@@ -230,10 +230,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>http://10.102.105.24:8080/</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>hceUsernameT</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -266,6 +262,14 @@
   </si>
   <si>
     <t>HFLRPA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Edge</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://10.102.105.24:8080/</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -308,9 +312,9 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Malgun Gothic"/>
+      <name val="微软雅黑"/>
       <family val="2"/>
-      <charset val="129"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -684,7 +688,7 @@
   <dimension ref="A1:Z991"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -769,7 +773,7 @@
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>59</v>
@@ -783,18 +787,20 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B8" s="8"/>
+      <c r="B8" s="8" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>56</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -810,7 +816,7 @@
         <v>53</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -821,34 +827,34 @@
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/HCECreditReferenceCenter/Data/Config.xlsx
+++ b/HCECreditReferenceCenter/Data/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\20120262\Documents\UiPath\HCECreditReferenceCenter\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF49AF4A-CF5F-4EE8-AAA5-DBCA378F8D59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EC2B33F-360F-4463-ADE1-1A31B58BD88E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -257,10 +257,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>20240301</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>HFLRPA</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -270,6 +266,10 @@
   </si>
   <si>
     <t>http://10.102.105.24:8080/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20250301</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -365,9 +365,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -405,9 +405,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -440,26 +440,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -492,26 +475,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -688,7 +654,7 @@
   <dimension ref="A1:Z991"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -792,7 +758,7 @@
         <v>55</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -800,7 +766,7 @@
         <v>56</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -816,7 +782,7 @@
         <v>53</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -854,7 +820,7 @@
         <v>68</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
